--- a/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55033FD-3E8E-4290-8EAC-28C75035B809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929EBE64-8FF2-416E-8C00-77C8EE497694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$114</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>PJ名</t>
   </si>
@@ -265,7 +265,14 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>第１．３版</t>
+    <t>1.4版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．４版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -273,6 +280,23 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト追加</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード追加</t>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1113,7 +1137,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
@@ -1243,6 +1267,120 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1354,110 +1492,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1467,12 +1506,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5189,15 +5222,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB63E99-5B54-4374-9F5B-05F57504022F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2057400" y="9220200"/>
+          <a:ext cx="276225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="410000"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5213,7 +5314,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4486275" y="8362950"/>
+          <a:off x="4486275" y="13792200"/>
           <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -7200,7 +7301,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>WA1020101</a:t>
+            <a:t>WA1020102</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -9968,7 +10069,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>WA1020301</a:t>
+            <a:t>WA1020302</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -10601,6 +10702,2971 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>244187</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>196125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>71528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F47D01B-DD17-4B30-A3F1-5B19F2FA39C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1901537" y="8305800"/>
+          <a:ext cx="1885513" cy="242978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA10205/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70918</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84585</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE02C91F-3D7B-4819-B436-3ADBED2D8603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2833168" y="9248775"/>
+          <a:ext cx="289892" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231069</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>175693</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>8697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F392EEF-A748-4951-AAA8-76A34AABF6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1612194" y="8525156"/>
+          <a:ext cx="7402699" cy="2103916"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111344</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111098</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>126119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE3947A-D671-4A7A-ACD5-E49CF12FCFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2044919" y="8890120"/>
+          <a:ext cx="1104654" cy="570499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020501</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111098</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250380</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1337995-12A3-4C6A-8D90-D40391B3D41E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="3"/>
+          <a:endCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3149573" y="9175369"/>
+          <a:ext cx="1244182" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6081</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4024</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>6037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21896BEE-2C3B-4D13-A359-2A39527447C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3320781" y="8972336"/>
+          <a:ext cx="1379068" cy="225326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>業務エラーなし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>69057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196020</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>42794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Oval 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FF5FF6-6085-4BDA-A274-B928583797D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="9117807"/>
+          <a:ext cx="119820" cy="116612"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196020</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111344</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261E59B8-B3E0-484D-BA2A-B857F1AFE270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="92" idx="6"/>
+          <a:endCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="472245" y="9174917"/>
+          <a:ext cx="1572674" cy="451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250380</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>174619</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>126119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00F6A8D-14C6-45D8-8ED1-1164A3C677D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4393755" y="8890120"/>
+          <a:ext cx="1305364" cy="570499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020502</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>174619</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249767</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C3263E-143A-4B7D-88D2-3E7E6D315B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="3"/>
+          <a:endCxn id="98" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5699119" y="9175369"/>
+          <a:ext cx="1456273" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5468</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>3409</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>6037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B547E7-40A4-430C-B052-0D63D48B6253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6082418" y="8972336"/>
+          <a:ext cx="1379066" cy="225326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>要求成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249767</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>174005</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>126119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383759E9-E90E-499B-951B-6BBA3D11FAFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7155392" y="8890120"/>
+          <a:ext cx="1305363" cy="570499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020503</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107303</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>135718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215393</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>135718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9B8C30-DE8F-42E9-BEF4-8D903C1CEB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3145778" y="9327343"/>
+          <a:ext cx="1212990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165902</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>21768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>163844</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>101418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2E074F-94FF-4DD7-BDD9-736D2358899C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3480602" y="9356268"/>
+          <a:ext cx="1379067" cy="222525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>要求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205358</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DDA29E-E039-4070-BAF4-EF78F1380DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="481583" y="8972336"/>
+          <a:ext cx="1547242" cy="219289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111221</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>126119</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948BB4B7-FBAA-4BDD-88EB-CA8E4467A348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="2254738" y="9118112"/>
+          <a:ext cx="145169" cy="539846"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -157472"/>
+            <a:gd name="adj2" fmla="val 144657"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106121</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10483</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>93144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE80310-E92E-4E6C-9F35-41DC085EB741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1763471" y="9775849"/>
+          <a:ext cx="1285487" cy="223295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ダウンロード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132560</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>96567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128042</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>32479</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A111651-951C-487D-8D12-2D3B464D0591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="2618585" y="8859567"/>
+          <a:ext cx="547932" cy="221662"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13233"/>
+            <a:gd name="adj2" fmla="val 191460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251189</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>141173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155740</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>79342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A7B4E0-25D5-4D83-98F2-B0128284748A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3289664" y="8618423"/>
+          <a:ext cx="1285676" cy="223919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>業務エラー発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC4025B-E77A-4F2F-BB38-635C58F5E4F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2057400" y="9220200"/>
+          <a:ext cx="276225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="410000"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>244187</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>196125</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>71528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D0F51A-BE42-4D5D-AEF1-A3F79E8B9772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1901537" y="8305800"/>
+          <a:ext cx="1885513" cy="242978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA10206/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクトアップロード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70918</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84585</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>121340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29A2CDB-215C-4B05-90C8-2025FD71D0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2833168" y="9248775"/>
+          <a:ext cx="289892" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231069</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>175693</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>8697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D510C7-8E92-4EBA-B97E-582B4EFD3224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1612194" y="8525156"/>
+          <a:ext cx="7402699" cy="2103916"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111344</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111098</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>126119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889D5CF0-057E-47DF-B1EF-F0D1D31CD3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2044919" y="8890120"/>
+          <a:ext cx="1104654" cy="570499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクトアップロード</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020601</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111098</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250380</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B81C8F-243F-48F7-B6A2-88001A3CAF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="116" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3149573" y="9175369"/>
+          <a:ext cx="1244182" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6081</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4024</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>6037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA9B2D0-1043-4824-A298-627E84BE9681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3320781" y="8972336"/>
+          <a:ext cx="1379068" cy="225326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>入力チェック</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>69057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196020</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>42794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Oval 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372310F3-401F-4AEE-8668-47A33C4D3959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="9117807"/>
+          <a:ext cx="119820" cy="116612"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196020</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111344</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B344BA53-08E1-42B2-81C2-3916E3CC8231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="114" idx="6"/>
+          <a:endCxn id="111" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="472245" y="9174917"/>
+          <a:ext cx="1572674" cy="451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250380</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>174619</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>126119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C985CAE-3925-4FA9-B7C6-08138B1C4EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4393755" y="8890120"/>
+          <a:ext cx="1305364" cy="570499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロジェクトアップロード</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020602</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>174619</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249767</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D991321C-17BB-47A9-85BC-C403D2369298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="3"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5699119" y="9175369"/>
+          <a:ext cx="1456273" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5468</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>3409</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>6037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E3FB7A-E971-44B8-8EB0-477750955FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6082418" y="8972336"/>
+          <a:ext cx="1379066" cy="225326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>要求成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249767</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>174005</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>126119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68390407-1CF6-49BD-BCCA-F4BB3E133031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7155392" y="8890120"/>
+          <a:ext cx="1305363" cy="570499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロジェクトアップロード</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020603</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107303</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>135718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215393</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>135718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E26907-52CE-47E1-944D-1568D9FBCD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3145778" y="9327343"/>
+          <a:ext cx="1212990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165902</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>21768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>163844</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88479606-69B3-4A18-B524-C8F6A3179BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3480602" y="9356268"/>
+          <a:ext cx="1379067" cy="222525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>要求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205358</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD3C458-1EF3-4B85-AF41-DAF36F440FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="481583" y="8972336"/>
+          <a:ext cx="1547242" cy="219289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクトアップロード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132560</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>96567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128042</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>32479</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FC01BE-6251-46E8-9A38-C8E6E3E2CA91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="2618585" y="8859567"/>
+          <a:ext cx="547932" cy="221662"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13233"/>
+            <a:gd name="adj2" fmla="val 191460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251189</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>141173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155740</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>79342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57390D4C-DC39-4B96-BB8F-5A56A359A8E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3289664" y="8618423"/>
+          <a:ext cx="1285676" cy="223919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>入力チェック失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11001,7 +14067,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="J23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11015,7 +14081,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="52">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44687</v>
+        <v>44893</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
@@ -11617,57 +14683,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="68" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="77" t="s">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="59" t="s">
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="86" t="str">
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="124" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="53">
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="91">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="55"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="93"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -11675,53 +14741,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="59" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="65" t="str">
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="103" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="53">
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="91">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44687</v>
+        <v>44893</v>
       </c>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="55"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="93"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -11729,45 +14795,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="89" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="55"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="93"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -11804,1229 +14870,1101 @@
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="56" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="56" t="s">
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="56" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="57"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="95"/>
     </row>
     <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="77">
         <v>1</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106">
+      <c r="C8" s="78"/>
+      <c r="D8" s="79">
         <v>43595</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109" t="s">
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112" t="s">
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="115" t="s">
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="112" t="s">
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="114"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="87"/>
     </row>
     <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="75">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92">
+      <c r="C9" s="76"/>
+      <c r="D9" s="55">
         <v>43803</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="98" t="s">
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="100"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="63"/>
     </row>
     <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="92">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55">
         <v>43895</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="124" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98" t="s">
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101" t="s">
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="98" t="s">
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="100"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
     </row>
     <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="92">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55">
         <v>44687</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="122" t="s">
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="98" t="s">
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="100"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
     </row>
     <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="100"/>
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55">
+        <v>44869</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="63"/>
     </row>
     <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="100"/>
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55">
+        <v>44893</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63"/>
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="100"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
     </row>
     <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="100"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63"/>
     </row>
     <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="100"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="100"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="63"/>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="100"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
     </row>
     <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="100"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63"/>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="100"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63"/>
     </row>
     <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="100"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="63"/>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="100"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="63"/>
     </row>
     <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="121"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="100"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="63"/>
     </row>
     <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="121"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63"/>
     </row>
     <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="121"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="100"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="121"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="100"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="63"/>
     </row>
     <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="102"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="100"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="63"/>
     </row>
     <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="102"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="100"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="102"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="100"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="63"/>
     </row>
     <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="102"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="100"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="100"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="63"/>
     </row>
     <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="102"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="100"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="63"/>
     </row>
     <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="100"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13050,6 +15988,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -13066,7 +16160,9 @@
   </sheetPr>
   <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13204,163 +16300,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="str">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="68" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="77" t="str">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="79"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="117"/>
       <c r="AA1" s="128" t="s">
         <v>12</v>
       </c>
       <c r="AB1" s="129"/>
-      <c r="AC1" s="86" t="str">
+      <c r="AC1" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="125">
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="127"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="str">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="82"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="120"/>
       <c r="AA2" s="128" t="s">
         <v>13</v>
       </c>
       <c r="AB2" s="129"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="125">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44687</v>
+        <v>44893</v>
       </c>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="127"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="str">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="85"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
       <c r="AA3" s="128"/>
       <c r="AB3" s="129"/>
-      <c r="AC3" s="86" t="str">
+      <c r="AC3" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="125" t="str">
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="127"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14675,6 +17771,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14684,14 +17788,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14708,7 +17804,9 @@
   </sheetPr>
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14717,59 +17815,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="str">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="139" t="str">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="59" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="86" t="str">
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="125">
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="127"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
       <c r="AJ1" s="6"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="6"/>
@@ -14783,54 +17881,54 @@
       <c r="AW1" s="6"/>
     </row>
     <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="str">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="59" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="125">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44687</v>
+        <v>44893</v>
       </c>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="127"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="6"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="6"/>
@@ -14844,52 +17942,52 @@
       <c r="AW2" s="6"/>
     </row>
     <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="str">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="86" t="str">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="125" t="str">
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="127"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14921,6 +18019,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14930,14 +18036,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14966,59 +18064,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="str">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="139" t="str">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="59" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="86" t="str">
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="125">
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="127"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
       <c r="AJ1" s="6"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="6"/>
@@ -15032,54 +18130,54 @@
       <c r="AW1" s="6"/>
     </row>
     <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="str">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="59" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="125">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44687</v>
+        <v>44893</v>
       </c>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="127"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="6"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="6"/>
@@ -15093,52 +18191,52 @@
       <c r="AW2" s="6"/>
     </row>
     <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="str">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="86" t="str">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="125" t="str">
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="127"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -15182,6 +18280,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15191,22 +18297,15 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="36" max="34" man="1"/>
+    <brk id="75" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
